--- a/testelei.xlsx
+++ b/testelei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliabe\Desktop\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9010F-03D0-4B89-B985-89FEFE38D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ABEE17-E546-4137-ADF2-FA0758EB8D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{A880D8BF-851B-4E42-B0F3-96EEC5928E95}"/>
   </bookViews>
@@ -1249,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,21 +1278,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,7 +1630,7 @@
     <col min="1" max="2" width="29.85546875" style="3"/>
     <col min="3" max="3" width="29.85546875" style="9"/>
     <col min="4" max="4" width="67.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="14"/>
+    <col min="5" max="5" width="29.85546875" style="3"/>
     <col min="6" max="6" width="29.85546875" style="9"/>
     <col min="7" max="16384" width="29.85546875" style="3"/>
   </cols>
@@ -1657,7 +1648,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1677,7 +1668,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>80</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1697,7 +1688,7 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>80</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1717,7 +1708,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1737,7 +1728,7 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>91.49</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1757,7 +1748,7 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>23.46</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1777,7 +1768,7 @@
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>91.49</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1797,7 +1788,7 @@
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="4">
         <v>91.49</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1817,7 +1808,7 @@
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="4">
         <v>91.49</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1837,7 +1828,7 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="4">
         <v>91.49</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1857,7 +1848,7 @@
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="4">
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1877,7 +1868,7 @@
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="4">
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1897,7 +1888,7 @@
       <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="4">
         <v>45.59</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1917,7 +1908,7 @@
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="4">
         <v>45.59</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1937,7 +1928,7 @@
       <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="4">
         <v>45.59</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1957,7 +1948,7 @@
       <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="4">
         <v>45.59</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1977,7 +1968,7 @@
       <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="4">
         <v>45.59</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1997,7 +1988,7 @@
       <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="4">
         <v>45.59</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2017,7 +2008,7 @@
       <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="4">
         <v>45.59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2037,7 +2028,7 @@
       <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="4">
         <v>45.59</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -2057,7 +2048,7 @@
       <c r="D21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="4">
         <v>45.59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -2077,7 +2068,7 @@
       <c r="D22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="4">
         <v>45.59</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -2097,7 +2088,7 @@
       <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="4">
         <v>61.31</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -2117,7 +2108,7 @@
       <c r="D24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="4">
         <v>253.62</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -2137,7 +2128,7 @@
       <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="4">
         <v>253.62</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2157,7 +2148,7 @@
       <c r="D26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="4">
         <v>253.62</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -2177,7 +2168,7 @@
       <c r="D27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="4">
         <v>253.62</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -2197,7 +2188,7 @@
       <c r="D28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="4">
         <v>253.62</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -2217,7 +2208,7 @@
       <c r="D29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="4">
         <v>253.62</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -2237,7 +2228,7 @@
       <c r="D30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="4">
         <v>253.62</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2257,7 +2248,7 @@
       <c r="D31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="4">
         <v>253.62</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -2277,7 +2268,7 @@
       <c r="D32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="4">
         <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2297,7 +2288,7 @@
       <c r="D33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="4">
         <v>30</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -2317,7 +2308,7 @@
       <c r="D34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="4">
         <v>45.59</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -2337,7 +2328,7 @@
       <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="4">
         <v>61.31</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -2357,7 +2348,7 @@
       <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="4">
         <v>20</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -2377,7 +2368,7 @@
       <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="4">
         <v>70</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -2397,7 +2388,7 @@
       <c r="D38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="4">
         <v>70</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -2417,7 +2408,7 @@
       <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="4">
         <v>70</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2435,7 +2426,7 @@
       <c r="D40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="4">
         <v>70</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -2453,7 +2444,7 @@
       <c r="D41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="4">
         <v>70</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2473,7 +2464,7 @@
       <c r="D42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="4">
         <v>70</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -2493,7 +2484,7 @@
       <c r="D43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="4">
         <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2501,7 +2492,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2513,7 +2504,7 @@
       <c r="D44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="4">
         <v>70</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2521,7 +2512,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
@@ -2531,7 +2522,7 @@
       <c r="D45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="4">
         <v>70</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -2539,7 +2530,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="4" t="s">
         <v>116</v>
       </c>
@@ -2549,7 +2540,7 @@
       <c r="D46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="4">
         <v>70</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -2557,7 +2548,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>116</v>
       </c>
@@ -2567,7 +2558,7 @@
       <c r="D47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="4">
         <v>70</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -2575,7 +2566,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2584,10 +2575,10 @@
       <c r="C48" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="4">
         <v>70</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -2595,17 +2586,17 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="4">
         <v>70</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -2625,7 +2616,7 @@
       <c r="D50" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="4">
         <v>70</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -2645,7 +2636,7 @@
       <c r="D51" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="4">
         <v>70</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -2665,7 +2656,7 @@
       <c r="D52" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="4">
         <v>60.03</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -2685,7 +2676,7 @@
       <c r="D53" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="4">
         <v>102.31</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -2705,7 +2696,7 @@
       <c r="D54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="4">
         <v>53.13</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -2725,7 +2716,7 @@
       <c r="D55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="4">
         <v>102.31</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -2745,7 +2736,7 @@
       <c r="D56" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="4">
         <v>63.67</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -2772,7 +2763,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="95.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2796,7 +2787,7 @@
       <c r="F1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>387</v>
       </c>
       <c r="H1" t="s">
@@ -2858,7 +2849,7 @@
       <c r="F2" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>195</v>
       </c>
       <c r="H2" t="s">
@@ -2920,7 +2911,7 @@
       <c r="F3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>195</v>
       </c>
       <c r="H3" t="s">
@@ -2982,7 +2973,7 @@
       <c r="F4" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>200</v>
       </c>
       <c r="H4" t="s">
@@ -3044,7 +3035,7 @@
       <c r="F5" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>200</v>
       </c>
       <c r="H5" t="s">
@@ -3106,7 +3097,7 @@
       <c r="F6" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>205</v>
       </c>
       <c r="H6" t="s">
@@ -3168,7 +3159,7 @@
       <c r="F7" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>208</v>
       </c>
       <c r="H7" t="s">
@@ -3230,7 +3221,7 @@
       <c r="F8" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H8" t="s">
@@ -3292,7 +3283,7 @@
       <c r="F9" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H9" t="s">
@@ -3354,7 +3345,7 @@
       <c r="F10" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H10" t="s">
@@ -3416,7 +3407,7 @@
       <c r="F11" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>218</v>
       </c>
       <c r="H11" t="s">
@@ -3478,7 +3469,7 @@
       <c r="F12" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H12" t="s">
@@ -3540,7 +3531,7 @@
       <c r="F13" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H13" t="s">
@@ -3602,7 +3593,7 @@
       <c r="F14" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H14" t="s">
@@ -3664,7 +3655,7 @@
       <c r="F15" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H15" t="s">
@@ -3726,7 +3717,7 @@
       <c r="F16" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>230</v>
       </c>
       <c r="H16" t="s">
@@ -3788,7 +3779,7 @@
       <c r="F17" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>230</v>
       </c>
       <c r="H17" t="s">
@@ -3850,7 +3841,7 @@
       <c r="F18" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>230</v>
       </c>
       <c r="H18" t="s">
@@ -3912,7 +3903,7 @@
       <c r="F19" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H19" t="s">
@@ -3974,7 +3965,7 @@
       <c r="F20" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H20" t="s">
@@ -4036,7 +4027,7 @@
       <c r="F21" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H21" t="s">
@@ -4098,7 +4089,7 @@
       <c r="F22" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>244</v>
       </c>
       <c r="H22" t="s">
@@ -4160,7 +4151,7 @@
       <c r="F23" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>247</v>
       </c>
       <c r="H23" t="s">
@@ -4222,7 +4213,7 @@
       <c r="F24" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>250</v>
       </c>
       <c r="H24" t="s">
@@ -4284,7 +4275,7 @@
       <c r="F25" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>250</v>
       </c>
       <c r="H25" t="s">
@@ -4346,7 +4337,7 @@
       <c r="F26" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>250</v>
       </c>
       <c r="H26" t="s">
@@ -4408,7 +4399,7 @@
       <c r="F27" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>250</v>
       </c>
       <c r="H27" t="s">
@@ -4470,7 +4461,7 @@
       <c r="F28" t="s">
         <v>194</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H28" t="s">
@@ -4532,7 +4523,7 @@
       <c r="F29" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H29" t="s">
@@ -4594,7 +4585,7 @@
       <c r="F30" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H30" t="s">
@@ -4656,7 +4647,7 @@
       <c r="F31" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H31" t="s">
@@ -4718,7 +4709,7 @@
       <c r="F32" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H32" t="s">
@@ -4780,7 +4771,7 @@
       <c r="F33" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H33" t="s">
@@ -4842,7 +4833,7 @@
       <c r="F34" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H34" t="s">
@@ -4904,7 +4895,7 @@
       <c r="F35" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H35" t="s">
@@ -4966,7 +4957,7 @@
       <c r="F36" t="s">
         <v>194</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H36" t="s">
@@ -5028,7 +5019,7 @@
       <c r="F37" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H37" t="s">
@@ -5090,7 +5081,7 @@
       <c r="F38" t="s">
         <v>194</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H38" t="s">
@@ -5152,7 +5143,7 @@
       <c r="F39" t="s">
         <v>194</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H39" t="s">
@@ -5214,7 +5205,7 @@
       <c r="F40" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H40" t="s">
@@ -5276,7 +5267,7 @@
       <c r="F41" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H41" t="s">
@@ -5338,7 +5329,7 @@
       <c r="F42" t="s">
         <v>194</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H42" t="s">
@@ -5400,7 +5391,7 @@
       <c r="F43" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H43" t="s">
@@ -5462,7 +5453,7 @@
       <c r="F44" t="s">
         <v>194</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H44" t="s">
@@ -5524,7 +5515,7 @@
       <c r="F45" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H45" t="s">
@@ -5586,7 +5577,7 @@
       <c r="F46" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H46" t="s">
@@ -5648,7 +5639,7 @@
       <c r="F47" t="s">
         <v>194</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H47" t="s">
@@ -5710,7 +5701,7 @@
       <c r="F48" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H48" t="s">
@@ -5772,7 +5763,7 @@
       <c r="F49" t="s">
         <v>194</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H49" t="s">
@@ -5834,7 +5825,7 @@
       <c r="F50" t="s">
         <v>194</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H50" t="s">
@@ -5896,7 +5887,7 @@
       <c r="F51" t="s">
         <v>194</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H51" t="s">
@@ -5958,7 +5949,7 @@
       <c r="F52" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H52" t="s">
@@ -6020,7 +6011,7 @@
       <c r="F53" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H53" t="s">
@@ -6082,7 +6073,7 @@
       <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H54" t="s">
@@ -6144,7 +6135,7 @@
       <c r="F55" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H55" t="s">
@@ -6206,7 +6197,7 @@
       <c r="F56" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H56" t="s">
@@ -6268,7 +6259,7 @@
       <c r="F57" t="s">
         <v>194</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H57" t="s">
@@ -6330,7 +6321,7 @@
       <c r="F58" t="s">
         <v>194</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H58" t="s">
@@ -6392,7 +6383,7 @@
       <c r="F59" t="s">
         <v>194</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H59" t="s">
@@ -6454,7 +6445,7 @@
       <c r="F60" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H60" t="s">
@@ -6516,7 +6507,7 @@
       <c r="F61" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H61" t="s">
@@ -6578,7 +6569,7 @@
       <c r="F62" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>330</v>
       </c>
       <c r="H62" t="s">
@@ -6640,7 +6631,7 @@
       <c r="F63" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>330</v>
       </c>
       <c r="H63" t="s">
@@ -6702,7 +6693,7 @@
       <c r="F64" t="s">
         <v>194</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>330</v>
       </c>
       <c r="H64" t="s">
@@ -6764,7 +6755,7 @@
       <c r="F65" t="s">
         <v>194</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H65" t="s">
@@ -6826,7 +6817,7 @@
       <c r="F66" t="s">
         <v>194</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H66" t="s">
@@ -6888,7 +6879,7 @@
       <c r="F67" t="s">
         <v>194</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H67" t="s">
@@ -6950,7 +6941,7 @@
       <c r="F68" t="s">
         <v>194</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H68" t="s">
@@ -7012,7 +7003,7 @@
       <c r="F69" t="s">
         <v>194</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H69" t="s">
@@ -7074,7 +7065,7 @@
       <c r="F70" t="s">
         <v>194</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H70" t="s">
@@ -7136,7 +7127,7 @@
       <c r="F71" t="s">
         <v>194</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H71" t="s">
@@ -7198,7 +7189,7 @@
       <c r="F72" t="s">
         <v>194</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H72" t="s">
@@ -7260,7 +7251,7 @@
       <c r="F73" t="s">
         <v>194</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H73" t="s">
@@ -7322,7 +7313,7 @@
       <c r="F74" t="s">
         <v>194</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H74" t="s">
@@ -7384,7 +7375,7 @@
       <c r="F75" t="s">
         <v>194</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H75" t="s">
@@ -7446,7 +7437,7 @@
       <c r="F76" t="s">
         <v>194</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H76" t="s">
@@ -7508,7 +7499,7 @@
       <c r="F77" t="s">
         <v>194</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H77" t="s">
@@ -7570,7 +7561,7 @@
       <c r="F78" t="s">
         <v>194</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H78" t="s">
@@ -7632,7 +7623,7 @@
       <c r="F79" t="s">
         <v>194</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="10" t="s">
         <v>337</v>
       </c>
       <c r="H79" t="s">
@@ -7694,7 +7685,7 @@
       <c r="F80" t="s">
         <v>194</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>368</v>
       </c>
       <c r="H80" t="s">
@@ -7756,7 +7747,7 @@
       <c r="F81" t="s">
         <v>194</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="10" t="s">
         <v>371</v>
       </c>
       <c r="H81" t="s">
@@ -7818,7 +7809,7 @@
       <c r="F82" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>371</v>
       </c>
       <c r="H82" t="s">
@@ -7880,7 +7871,7 @@
       <c r="F83" t="s">
         <v>194</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="10" t="s">
         <v>376</v>
       </c>
       <c r="H83" t="s">
@@ -7942,7 +7933,7 @@
       <c r="F84" t="s">
         <v>194</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
         <v>376</v>
       </c>
       <c r="H84" t="s">
@@ -8004,7 +7995,7 @@
       <c r="F85" t="s">
         <v>194</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="10" t="s">
         <v>381</v>
       </c>
       <c r="H85" t="s">
@@ -8066,7 +8057,7 @@
       <c r="F86" t="s">
         <v>194</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>384</v>
       </c>
       <c r="H86" t="s">
